--- a/0008 User Management/Config/开关映射表(重复性).xlsx
+++ b/0008 User Management/Config/开关映射表(重复性).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="68">
   <si>
     <t>SDTL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,30 @@
   <si>
     <t>S4TL</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JC-J1</t>
+  </si>
+  <si>
+    <t>JC-J2</t>
+  </si>
+  <si>
+    <t>J1,JC-J2</t>
+  </si>
+  <si>
+    <t>J2,JC-J1</t>
+  </si>
+  <si>
+    <t>JC-J3</t>
+  </si>
+  <si>
+    <t>J3,JC-J1</t>
+  </si>
+  <si>
+    <t>JC-J4</t>
+  </si>
+  <si>
+    <t>J4,JC-J1</t>
   </si>
 </sst>
 </file>
@@ -2515,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2605,7 +2629,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2625,7 +2649,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2645,7 +2669,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2665,7 +2689,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2680,7 +2704,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2779,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -2799,7 +2823,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -2819,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>16</v>
@@ -2839,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -2859,7 +2883,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -2879,7 +2903,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
@@ -2899,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3016,7 +3040,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
@@ -3036,7 +3060,7 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -3056,7 +3080,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
         <v>16</v>
@@ -3076,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>16</v>
@@ -3096,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -3116,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -3136,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -3156,7 +3180,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
